--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>32.90367519457939</v>
+        <v>48.23055070353873</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>19.36501869809973</v>
+        <v>29.09825590791537</v>
       </c>
     </row>
     <row r="4">
@@ -396,37 +396,17 @@
         </is>
       </c>
       <c r="B4">
-        <v>17.84653338086933</v>
+        <v>13.75095691594641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B5">
-        <v>10.3443448644324</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NorthwardVelocity</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>10.1667558320703</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EastwardVelocity</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>9.373672029948862</v>
+        <v>8.9202364725995</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,27 +376,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>48.23055070353873</v>
+        <v>31.88827186667125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B3">
-        <v>29.09825590791537</v>
+        <v>18.72947895041187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B4">
-        <v>13.75095691594641</v>
+        <v>13.11754830984567</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,37 @@
         </is>
       </c>
       <c r="B5">
-        <v>8.9202364725995</v>
+        <v>11.9413417011499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Salinity</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>11.2718233486166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EastwardVelocity</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>6.69242979583253</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sampling_Depth</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>6.359106027472191</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>31.88827186667125</v>
+        <v>31.50647122526048</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>18.72947895041187</v>
+        <v>18.76444902650253</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>13.11754830984567</v>
+        <v>13.54993501083804</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>11.9413417011499</v>
+        <v>11.98806451237925</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>11.2718233486166</v>
+        <v>11.50634119771969</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>6.69242979583253</v>
+        <v>7.015830506684529</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.359106027472191</v>
+        <v>5.668908520615488</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -372,71 +372,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LandMinDist</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B2">
-        <v>31.50647122526048</v>
+        <v>21.64037336985864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B3">
-        <v>18.76444902650253</v>
+        <v>17.61198856262535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B4">
-        <v>13.54993501083804</v>
+        <v>15.99039842947568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>LandMinDist</t>
         </is>
       </c>
       <c r="B5">
-        <v>11.98806451237925</v>
+        <v>13.86379417291007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SummitAreaKm2</t>
         </is>
       </c>
       <c r="B6">
-        <v>11.50634119771969</v>
+        <v>11.70342685736703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B7">
-        <v>7.015830506684529</v>
+        <v>10.72263009839461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sampling_Depth</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B8">
-        <v>5.668908520615488</v>
+        <v>8.467388509368625</v>
       </c>
     </row>
   </sheetData>
